--- a/data/descripciones.xlsx
+++ b/data/descripciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F8EB09-1960-4249-9F89-C5BCF3581198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC88DB5-6C3B-4EE5-AE7A-B67D0C2ABBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1524DA2-47C1-41DB-A8EE-807D50EDDCC1}"/>
   </bookViews>
@@ -41,6 +41,9 @@
     <t>codigo</t>
   </si>
   <si>
+    <t>descripcion</t>
+  </si>
+  <si>
     <t>Contribuciones, donaciones y créditos, en dinero o especie, que realicen los particulares (Anexo 8.2B)</t>
   </si>
   <si>
@@ -99,9 +102,6 @@
   </si>
   <si>
     <t xml:space="preserve">Créditos o aportes que provengan del patrimonio de los candidatos, de sus cónyuges o de sus compañeros permanentes,o de sus parientes (Anexo 8.1B) </t>
-  </si>
-  <si>
-    <t>descripciones</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +509,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +621,7 @@
         <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
